--- a/Data/Osteomyelitis_Ulcer_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Ulcer_Mortality_Trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AC6E1C-4265-584A-91F2-17AB8B537C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E9480-3018-CA46-A206-0E3C8D678EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{246DCAF6-E868-BF4F-833C-276B88412660}"/>
   </bookViews>
@@ -2122,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190E5D34-440D-E643-A8FA-6BAE0D74FEF3}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D23"/>
+      <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2452,6 +2452,48 @@
         <v>0.23</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>0.27</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="D24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>0.3</v>
+      </c>
+      <c r="C25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>0.27</v>
+      </c>
+      <c r="C26">
+        <v>0.26</v>
+      </c>
+      <c r="D26">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Osteomyelitis_Ulcer_Mortality_Trend.xlsx
+++ b/Data/Osteomyelitis_Ulcer_Mortality_Trend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksanaka/Desktop/Research/Osteomyelitis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3E9480-3018-CA46-A206-0E3C8D678EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF060C61-FDEC-CE44-A83F-431517DB87EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{246DCAF6-E868-BF4F-833C-276B88412660}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="1" xr2:uid="{246DCAF6-E868-BF4F-833C-276B88412660}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Cause of Death, 1999-2" sheetId="1" r:id="rId1"/>
@@ -2125,7 +2125,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,7 +2149,7 @@
         <v>1999</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C2" s="1">
         <v>0.06</v>
@@ -2163,7 +2163,7 @@
         <v>2000</v>
       </c>
       <c r="B3" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2177,7 +2177,7 @@
         <v>2001</v>
       </c>
       <c r="B4" s="1">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="1">
         <v>0.06</v>
@@ -2191,7 +2191,7 @@
         <v>2002</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="1">
         <v>0.06</v>
@@ -2205,7 +2205,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C6" s="1">
         <v>0.06</v>
@@ -2219,7 +2219,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C7" s="1">
         <v>0.06</v>
@@ -2233,7 +2233,7 @@
         <v>2005</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C8" s="1">
         <v>0.06</v>
@@ -2247,7 +2247,7 @@
         <v>2006</v>
       </c>
       <c r="B9" s="1">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C9" s="1">
         <v>0.08</v>
@@ -2261,7 +2261,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C10" s="1">
         <v>0.09</v>
@@ -2275,7 +2275,7 @@
         <v>2008</v>
       </c>
       <c r="B11" s="1">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C11" s="1">
         <v>0.08</v>
@@ -2289,7 +2289,7 @@
         <v>2009</v>
       </c>
       <c r="B12" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C12" s="1">
         <v>0.09</v>
@@ -2303,7 +2303,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="C13" s="1">
         <v>0.09</v>
@@ -2317,7 +2317,7 @@
         <v>2011</v>
       </c>
       <c r="B14" s="1">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="C14" s="1">
         <v>0.11</v>
@@ -2331,7 +2331,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="1">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="1">
         <v>0.1</v>
@@ -2345,7 +2345,7 @@
         <v>2013</v>
       </c>
       <c r="B16" s="1">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C16" s="1">
         <v>0.11</v>
@@ -2359,7 +2359,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="1">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C17" s="1">
         <v>0.12</v>
@@ -2373,7 +2373,7 @@
         <v>2015</v>
       </c>
       <c r="B18" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="C18" s="1">
         <v>0.13</v>
@@ -2387,7 +2387,7 @@
         <v>2016</v>
       </c>
       <c r="B19" s="1">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="C19" s="1">
         <v>0.14000000000000001</v>
@@ -2401,7 +2401,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="C20" s="1">
         <v>0.14000000000000001</v>
@@ -2415,7 +2415,7 @@
         <v>2018</v>
       </c>
       <c r="B21" s="1">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C21" s="1">
         <v>0.15</v>
@@ -2429,7 +2429,7 @@
         <v>2019</v>
       </c>
       <c r="B22" s="1">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="C22" s="1">
         <v>0.16</v>
@@ -2443,7 +2443,7 @@
         <v>2020</v>
       </c>
       <c r="B23" s="1">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C23" s="1">
         <v>0.2</v>
@@ -2456,8 +2456,8 @@
       <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24">
-        <v>0.27</v>
+      <c r="B24" s="1">
+        <v>0.34</v>
       </c>
       <c r="C24">
         <v>0.25</v>
@@ -2470,8 +2470,8 @@
       <c r="A25">
         <v>2022</v>
       </c>
-      <c r="B25">
-        <v>0.3</v>
+      <c r="B25" s="1">
+        <v>0.38</v>
       </c>
       <c r="C25">
         <v>0.28000000000000003</v>
@@ -2484,8 +2484,8 @@
       <c r="A26">
         <v>2023</v>
       </c>
-      <c r="B26">
-        <v>0.27</v>
+      <c r="B26" s="1">
+        <v>0.35</v>
       </c>
       <c r="C26">
         <v>0.26</v>
